--- a/datacollector/samples/data_sample_1.xlsx
+++ b/datacollector/samples/data_sample_1.xlsx
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/datacollector/samples/data_sample_1.xlsx
+++ b/datacollector/samples/data_sample_1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="项目1信息" sheetId="5" r:id="rId1"/>
+    <sheet name="项目名称" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -410,15 +410,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目1七月力度</t>
+    <t>201907力度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目1八月力度</t>
+    <t>201908力度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目1九月力度</t>
+    <t>201909力度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
